--- a/table_model___spi-12__lasso_($\beta_=_$0.5).xlsx
+++ b/table_model___spi-12__lasso_($\beta_=_$0.5).xlsx
@@ -690,10 +690,10 @@
         <v>0.278762905</v>
       </c>
       <c r="B2">
-        <v>0.2059762322822448</v>
+        <v>0.2059437355564894</v>
       </c>
       <c r="C2">
-        <v>0.2059762322378245</v>
+        <v>0.2030170961003986</v>
       </c>
       <c r="D2">
         <v>0.2059762320719223</v>
@@ -845,10 +845,10 @@
         <v>0.444861224</v>
       </c>
       <c r="B3">
-        <v>0.4088080476371714</v>
+        <v>0.4018222873069122</v>
       </c>
       <c r="C3">
-        <v>0.408808047627628</v>
+        <v>0.3902218212679511</v>
       </c>
       <c r="D3">
         <v>0.4088080475919854</v>
@@ -1000,10 +1000,10 @@
         <v>0.626507386</v>
       </c>
       <c r="B4">
-        <v>0.4671855607033616</v>
+        <v>0.457480472895243</v>
       </c>
       <c r="C4">
-        <v>0.4671855606648492</v>
+        <v>0.4295193995741298</v>
       </c>
       <c r="D4">
         <v>0.4671855605210124</v>
@@ -1155,10 +1155,10 @@
         <v>0.692550886</v>
       </c>
       <c r="B5">
-        <v>0.5399839642339577</v>
+        <v>0.5333641167565353</v>
       </c>
       <c r="C5">
-        <v>0.5399839642041013</v>
+        <v>0.4977934452222176</v>
       </c>
       <c r="D5">
         <v>0.539983964092593</v>
@@ -1310,10 +1310,10 @@
         <v>0.842026137</v>
       </c>
       <c r="B6">
-        <v>0.761490812992947</v>
+        <v>0.7278864813676109</v>
       </c>
       <c r="C6">
-        <v>0.7614908129751158</v>
+        <v>0.6944979274396481</v>
       </c>
       <c r="D6">
         <v>0.7614908129085199</v>
@@ -1465,10 +1465,10 @@
         <v>1.197703675</v>
       </c>
       <c r="B7">
-        <v>1.255933974565356</v>
+        <v>1.208230923026311</v>
       </c>
       <c r="C7">
-        <v>1.255933974655703</v>
+        <v>1.175117085465104</v>
       </c>
       <c r="D7">
         <v>1.255933974993131</v>
@@ -1620,10 +1620,10 @@
         <v>0.960333763</v>
       </c>
       <c r="B8">
-        <v>0.8645904914313741</v>
+        <v>0.8337938315063517</v>
       </c>
       <c r="C8">
-        <v>0.8645904914579925</v>
+        <v>0.8202301376868568</v>
       </c>
       <c r="D8">
         <v>0.8645904915574067</v>
@@ -1775,10 +1775,10 @@
         <v>0.436720642</v>
       </c>
       <c r="B9">
-        <v>0.1895094839821427</v>
+        <v>0.1985912031622223</v>
       </c>
       <c r="C9">
-        <v>0.1895094839136356</v>
+        <v>0.1934432536855129</v>
       </c>
       <c r="D9">
         <v>0.1895094836577741</v>
@@ -1930,10 +1930,10 @@
         <v>-0.228589736</v>
       </c>
       <c r="B10">
-        <v>0.09656340965516741</v>
+        <v>0.104605466486304</v>
       </c>
       <c r="C10">
-        <v>0.09656340958706569</v>
+        <v>0.08030655174476531</v>
       </c>
       <c r="D10">
         <v>0.09656340933271823</v>
@@ -2085,10 +2085,10 @@
         <v>-0.296024885</v>
       </c>
       <c r="B11">
-        <v>-0.2768685371461524</v>
+        <v>-0.2567831411750632</v>
       </c>
       <c r="C11">
-        <v>-0.276868537273581</v>
+        <v>-0.2784144243466763</v>
       </c>
       <c r="D11">
         <v>-0.2768685377495028</v>
@@ -2240,10 +2240,10 @@
         <v>-0.420720253</v>
       </c>
       <c r="B12">
-        <v>-0.5152804682758291</v>
+        <v>-0.490709217425769</v>
       </c>
       <c r="C12">
-        <v>-0.5152804684439617</v>
+        <v>-0.4897469453196848</v>
       </c>
       <c r="D12">
         <v>-0.5152804690719064</v>
@@ -2395,10 +2395,10 @@
         <v>-0.425623542</v>
       </c>
       <c r="B13">
-        <v>-0.5597325302187688</v>
+        <v>-0.5356801715843623</v>
       </c>
       <c r="C13">
-        <v>-0.5597325303898761</v>
+        <v>-0.5328864939638973</v>
       </c>
       <c r="D13">
         <v>-0.5597325310289302</v>
@@ -2550,10 +2550,10 @@
         <v>0.026699591</v>
       </c>
       <c r="B14">
-        <v>0.02180412259379591</v>
+        <v>-0.005769988040476962</v>
       </c>
       <c r="C14">
-        <v>0.02180412245841684</v>
+        <v>0.001792083811677902</v>
       </c>
       <c r="D14">
         <v>0.02180412195280097</v>
@@ -2705,10 +2705,10 @@
         <v>0.13916043</v>
       </c>
       <c r="B15">
-        <v>0.2041886053937119</v>
+        <v>0.1670744112135124</v>
       </c>
       <c r="C15">
-        <v>0.2041886052725347</v>
+        <v>0.1598536347761097</v>
       </c>
       <c r="D15">
         <v>0.2041886048199603</v>
@@ -2860,10 +2860,10 @@
         <v>-0.207233368</v>
       </c>
       <c r="B16">
-        <v>-0.05970165996037882</v>
+        <v>-0.06449751378135915</v>
       </c>
       <c r="C16">
-        <v>-0.05970166009959683</v>
+        <v>-0.05046614068244958</v>
       </c>
       <c r="D16">
         <v>-0.05970166061955057</v>
@@ -3015,10 +3015,10 @@
         <v>-0.369649639</v>
       </c>
       <c r="B17">
-        <v>-0.187835957000057</v>
+        <v>-0.1813602254552876</v>
       </c>
       <c r="C17">
-        <v>-0.1878359571400823</v>
+        <v>-0.1773612984145448</v>
       </c>
       <c r="D17">
         <v>-0.1878359576630512</v>
@@ -3170,10 +3170,10 @@
         <v>-0.299325805</v>
       </c>
       <c r="B18">
-        <v>-0.1176923835144778</v>
+        <v>-0.117533922759673</v>
       </c>
       <c r="C18">
-        <v>-0.1176923836306178</v>
+        <v>-0.1074016855453623</v>
       </c>
       <c r="D18">
         <v>-0.1176923840643794</v>
@@ -3325,10 +3325,10 @@
         <v>-0.909290358</v>
       </c>
       <c r="B19">
-        <v>-0.9334801190373658</v>
+        <v>-0.8803589706934074</v>
       </c>
       <c r="C19">
-        <v>-0.9334801192674071</v>
+        <v>-0.8853532168840808</v>
       </c>
       <c r="D19">
         <v>-0.933480120126569</v>
@@ -3480,10 +3480,10 @@
         <v>-1.006159673</v>
       </c>
       <c r="B20">
-        <v>-1.043888342996745</v>
+        <v>-0.9767951672543482</v>
       </c>
       <c r="C20">
-        <v>-1.043888343247709</v>
+        <v>-0.9862765572842302</v>
       </c>
       <c r="D20">
         <v>-1.043888344185016</v>
@@ -3635,10 +3635,10 @@
         <v>-1.032778528</v>
       </c>
       <c r="B21">
-        <v>-1.009584493662215</v>
+        <v>-0.9512439593863589</v>
       </c>
       <c r="C21">
-        <v>-1.009584493931927</v>
+        <v>-0.9528947583350604</v>
       </c>
       <c r="D21">
         <v>-1.009584494939254</v>
@@ -3790,10 +3790,10 @@
         <v>-1.351767382</v>
       </c>
       <c r="B22">
-        <v>-1.37552879156262</v>
+        <v>-1.2876323717041</v>
       </c>
       <c r="C22">
-        <v>-1.375528791909507</v>
+        <v>-1.29437696372139</v>
       </c>
       <c r="D22">
         <v>-1.375528793205068</v>
@@ -3945,10 +3945,10 @@
         <v>-1.349975863</v>
       </c>
       <c r="B23">
-        <v>-1.452055406235417</v>
+        <v>-1.38328815936859</v>
       </c>
       <c r="C23">
-        <v>-1.452055406626005</v>
+        <v>-1.361468260484896</v>
       </c>
       <c r="D23">
         <v>-1.452055408084777</v>
@@ -4100,10 +4100,10 @@
         <v>-1.316829649</v>
       </c>
       <c r="B24">
-        <v>-1.401811006706938</v>
+        <v>-1.306064057476493</v>
       </c>
       <c r="C24">
-        <v>-1.401811007061432</v>
+        <v>-1.317812262921747</v>
       </c>
       <c r="D24">
         <v>-1.401811008385405</v>
@@ -4255,10 +4255,10 @@
         <v>-1.162164831</v>
       </c>
       <c r="B25">
-        <v>-1.223118533152405</v>
+        <v>-1.137063918780142</v>
       </c>
       <c r="C25">
-        <v>-1.223118533481216</v>
+        <v>-1.144076201293029</v>
       </c>
       <c r="D25">
         <v>-1.223118534709262</v>
@@ -4410,10 +4410,10 @@
         <v>-2.374889683</v>
       </c>
       <c r="B26">
-        <v>-2.249009789402572</v>
+        <v>-2.070923800752481</v>
       </c>
       <c r="C26">
-        <v>-2.249009789834628</v>
+        <v>-2.129759788345227</v>
       </c>
       <c r="D26">
         <v>-2.249009791448277</v>
@@ -4565,10 +4565,10 @@
         <v>-2.362980599</v>
       </c>
       <c r="B27">
-        <v>-2.297830379662408</v>
+        <v>-2.148891750824404</v>
       </c>
       <c r="C27">
-        <v>-2.297830380072602</v>
+        <v>-2.191637316083801</v>
       </c>
       <c r="D27">
         <v>-2.297830381604603</v>
@@ -4720,10 +4720,10 @@
         <v>-1.854352008</v>
       </c>
       <c r="B28">
-        <v>-1.723413771855249</v>
+        <v>-1.638874080229759</v>
       </c>
       <c r="C28">
-        <v>-1.72341377219505</v>
+        <v>-1.64589069930884</v>
       </c>
       <c r="D28">
         <v>-1.723413773464145</v>
@@ -4875,10 +4875,10 @@
         <v>-1.20254712</v>
       </c>
       <c r="B29">
-        <v>-0.743586779335078</v>
+        <v>-0.725030131821191</v>
       </c>
       <c r="C29">
-        <v>-0.743586779540705</v>
+        <v>-0.7120016571278511</v>
       </c>
       <c r="D29">
         <v>-0.7435867803086837</v>
@@ -5030,10 +5030,10 @@
         <v>-1.403060604</v>
       </c>
       <c r="B30">
-        <v>-1.149062596696066</v>
+        <v>-1.112425824051343</v>
       </c>
       <c r="C30">
-        <v>-1.149062596939639</v>
+        <v>-1.103447817592271</v>
       </c>
       <c r="D30">
         <v>-1.149062597849336</v>
@@ -5185,10 +5185,10 @@
         <v>-1.491966078</v>
       </c>
       <c r="B31">
-        <v>-1.165632274338062</v>
+        <v>-1.123802143874432</v>
       </c>
       <c r="C31">
-        <v>-1.165632274587827</v>
+        <v>-1.117933562501585</v>
       </c>
       <c r="D31">
         <v>-1.165632275520651</v>
@@ -5340,10 +5340,10 @@
         <v>-1.323266071</v>
       </c>
       <c r="B32">
-        <v>-0.8823413778738991</v>
+        <v>-0.8598102287614576</v>
       </c>
       <c r="C32">
-        <v>-0.8823413780758226</v>
+        <v>-0.8501223417558066</v>
       </c>
       <c r="D32">
         <v>-0.882341378829969</v>
@@ -5495,10 +5495,10 @@
         <v>-1.144581365</v>
       </c>
       <c r="B33">
-        <v>-0.7377812528242894</v>
+        <v>-0.7210442659755043</v>
       </c>
       <c r="C33">
-        <v>-0.7377812530054959</v>
+        <v>-0.7102771694466095</v>
       </c>
       <c r="D33">
         <v>-0.7377812536822687</v>
@@ -5650,10 +5650,10 @@
         <v>-0.89859408</v>
       </c>
       <c r="B34">
-        <v>-0.5580167187523856</v>
+        <v>-0.54257367079318</v>
       </c>
       <c r="C34">
-        <v>-0.5580167189140871</v>
+        <v>-0.5344467649246405</v>
       </c>
       <c r="D34">
         <v>-0.5580167195180128</v>
@@ -5805,10 +5805,10 @@
         <v>-1.208296977</v>
       </c>
       <c r="B35">
-        <v>-0.730140090530355</v>
+        <v>-0.7156940818565282</v>
       </c>
       <c r="C35">
-        <v>-0.730140090691148</v>
+        <v>-0.7004615484801873</v>
       </c>
       <c r="D35">
         <v>-0.7301400912916806</v>
@@ -5960,10 +5960,10 @@
         <v>-1.259727733</v>
       </c>
       <c r="B36">
-        <v>-0.7288487042706171</v>
+        <v>-0.7137538655219795</v>
       </c>
       <c r="C36">
-        <v>-0.7288487044311539</v>
+        <v>-0.6991655464761706</v>
       </c>
       <c r="D36">
         <v>-0.7288487050307297</v>
@@ -6115,10 +6115,10 @@
         <v>-1.383918</v>
       </c>
       <c r="B37">
-        <v>-0.8192549866961406</v>
+        <v>-0.8027366861543326</v>
       </c>
       <c r="C37">
-        <v>-0.8192549868659504</v>
+        <v>-0.7878050989834029</v>
       </c>
       <c r="D37">
         <v>-0.8192549875001592</v>
@@ -6270,10 +6270,10 @@
         <v>-0.507959834</v>
       </c>
       <c r="B38">
-        <v>-0.2032511317030332</v>
+        <v>-0.2052536016985465</v>
       </c>
       <c r="C38">
-        <v>-0.2032511318010361</v>
+        <v>-0.192706546862362</v>
       </c>
       <c r="D38">
         <v>-0.2032511321670588</v>
@@ -6425,10 +6425,10 @@
         <v>-0.476870668</v>
       </c>
       <c r="B39">
-        <v>-0.1760760869056074</v>
+        <v>-0.1777559366378753</v>
       </c>
       <c r="C39">
-        <v>-0.1760760869909259</v>
+        <v>-0.1690804624327524</v>
       </c>
       <c r="D39">
         <v>-0.1760760873095752</v>
@@ -6580,10 +6580,10 @@
         <v>-0.803788133</v>
       </c>
       <c r="B40">
-        <v>-0.5874844854877056</v>
+        <v>-0.5745895603722361</v>
       </c>
       <c r="C40">
-        <v>-0.5874844856467986</v>
+        <v>-0.5633983629912376</v>
       </c>
       <c r="D40">
         <v>-0.5874844862409812</v>
@@ -6735,10 +6735,10 @@
         <v>-1.016775122</v>
       </c>
       <c r="B41">
-        <v>-1.150038848016385</v>
+        <v>-1.120504949444118</v>
       </c>
       <c r="C41">
-        <v>-1.150038848234482</v>
+        <v>-1.111934187734665</v>
       </c>
       <c r="D41">
         <v>-1.150038849049037</v>
@@ -6890,10 +6890,10 @@
         <v>-0.429762109</v>
       </c>
       <c r="B42">
-        <v>-0.4747342535170515</v>
+        <v>-0.4630590800060299</v>
       </c>
       <c r="C42">
-        <v>-0.4747342537149666</v>
+        <v>-0.4435224728670429</v>
       </c>
       <c r="D42">
         <v>-0.4747342544541437</v>
@@ -7045,10 +7045,10 @@
         <v>0.294720854</v>
       </c>
       <c r="B43">
-        <v>0.5791695254417865</v>
+        <v>0.4966982110823938</v>
       </c>
       <c r="C43">
-        <v>0.5791695253580502</v>
+        <v>0.5337323198968518</v>
       </c>
       <c r="D43">
         <v>0.5791695250453108</v>
@@ -7200,10 +7200,10 @@
         <v>0.297543939</v>
       </c>
       <c r="B44">
-        <v>0.7379071892360847</v>
+        <v>0.6564726609977576</v>
       </c>
       <c r="C44">
-        <v>0.7379071891829636</v>
+        <v>0.6675779191746198</v>
       </c>
       <c r="D44">
         <v>0.7379071889845664</v>
@@ -7355,10 +7355,10 @@
         <v>0.6970562769999999</v>
       </c>
       <c r="B45">
-        <v>1.084701404359227</v>
+        <v>1.009556143139804</v>
       </c>
       <c r="C45">
-        <v>1.084701404369935</v>
+        <v>1.000466805699833</v>
       </c>
       <c r="D45">
         <v>1.084701404409928</v>
@@ -7510,10 +7510,10 @@
         <v>0.537453922</v>
       </c>
       <c r="B46">
-        <v>1.134332598757275</v>
+        <v>1.066754078509143</v>
       </c>
       <c r="C46">
-        <v>1.134332598784808</v>
+        <v>1.054105210651384</v>
       </c>
       <c r="D46">
         <v>1.13433259888764</v>
@@ -7665,10 +7665,10 @@
         <v>0.744423795</v>
       </c>
       <c r="B47">
-        <v>1.099221205053344</v>
+        <v>1.029606360327076</v>
       </c>
       <c r="C47">
-        <v>1.099221205072293</v>
+        <v>1.030996422412529</v>
       </c>
       <c r="D47">
         <v>1.099221205143062</v>
@@ -7820,10 +7820,10 @@
         <v>0.901568559</v>
       </c>
       <c r="B48">
-        <v>1.166913777082976</v>
+        <v>1.078100066771991</v>
       </c>
       <c r="C48">
-        <v>1.166913777073183</v>
+        <v>1.089748842350959</v>
       </c>
       <c r="D48">
         <v>1.166913777036603</v>
@@ -7975,10 +7975,10 @@
         <v>0.868054445</v>
       </c>
       <c r="B49">
-        <v>1.129183313779154</v>
+        <v>1.040260916704809</v>
       </c>
       <c r="C49">
-        <v>1.129183313765989</v>
+        <v>1.052049175814673</v>
       </c>
       <c r="D49">
         <v>1.129183313716819</v>
@@ -8130,10 +8130,10 @@
         <v>0.277593737</v>
       </c>
       <c r="B50">
-        <v>0.7416010234792597</v>
+        <v>0.6698472347653334</v>
       </c>
       <c r="C50">
-        <v>0.741601023418588</v>
+        <v>0.6835675541510087</v>
       </c>
       <c r="D50">
         <v>0.7416010231919906</v>
@@ -8285,10 +8285,10 @@
         <v>0.21477772</v>
       </c>
       <c r="B51">
-        <v>0.5824332026389214</v>
+        <v>0.5185408187162144</v>
       </c>
       <c r="C51">
-        <v>0.5824332025475895</v>
+        <v>0.5312920976934878</v>
       </c>
       <c r="D51">
         <v>0.5824332022064812</v>
@@ -8440,10 +8440,10 @@
         <v>0.222558601</v>
       </c>
       <c r="B52">
-        <v>0.7405007551269219</v>
+        <v>0.6636669065474113</v>
       </c>
       <c r="C52">
-        <v>0.7405007550572102</v>
+        <v>0.6914989102460747</v>
       </c>
       <c r="D52">
         <v>0.7405007547968501</v>
@@ -8595,10 +8595,10 @@
         <v>0.670515246</v>
       </c>
       <c r="B53">
-        <v>1.370649183030075</v>
+        <v>1.280526374783178</v>
       </c>
       <c r="C53">
-        <v>1.370649183045922</v>
+        <v>1.287122375681019</v>
       </c>
       <c r="D53">
         <v>1.370649183105105</v>
@@ -8750,10 +8750,10 @@
         <v>0.668332347</v>
       </c>
       <c r="B54">
-        <v>1.326769450173558</v>
+        <v>1.251816935756217</v>
       </c>
       <c r="C54">
-        <v>1.326769450222331</v>
+        <v>1.239381382857214</v>
       </c>
       <c r="D54">
         <v>1.326769450404491</v>
@@ -8905,10 +8905,10 @@
         <v>0.600753663</v>
       </c>
       <c r="B55">
-        <v>0.9556575399280062</v>
+        <v>0.897008164210389</v>
       </c>
       <c r="C55">
-        <v>0.9556575399432529</v>
+        <v>0.9039394151714979</v>
       </c>
       <c r="D55">
         <v>0.9556575400001964</v>
@@ -9060,10 +9060,10 @@
         <v>0.490908996</v>
       </c>
       <c r="B56">
-        <v>0.8571287162834973</v>
+        <v>0.8085825865631863</v>
       </c>
       <c r="C56">
-        <v>0.8571287162898091</v>
+        <v>0.8092825575611393</v>
       </c>
       <c r="D56">
         <v>0.8571287163133818</v>
@@ -9215,10 +9215,10 @@
         <v>0.124636728</v>
       </c>
       <c r="B57">
-        <v>0.3067126178069132</v>
+        <v>0.286727417082037</v>
       </c>
       <c r="C57">
-        <v>0.3067126176967553</v>
+        <v>0.3007010855419432</v>
       </c>
       <c r="D57">
         <v>0.3067126172853364</v>
@@ -9370,10 +9370,10 @@
         <v>0.20714928</v>
       </c>
       <c r="B58">
-        <v>0.3299283351076772</v>
+        <v>0.3113300664335089</v>
       </c>
       <c r="C58">
-        <v>0.3299283350119917</v>
+        <v>0.3291192510579801</v>
       </c>
       <c r="D58">
         <v>0.3299283346546244</v>
@@ -9525,10 +9525,10 @@
         <v>0.566646485</v>
       </c>
       <c r="B59">
-        <v>1.01480521911216</v>
+        <v>0.9532888311571984</v>
       </c>
       <c r="C59">
-        <v>1.014805219127536</v>
+        <v>0.9498430988664455</v>
       </c>
       <c r="D59">
         <v>1.014805219184963</v>
@@ -9680,10 +9680,10 @@
         <v>0.703800792</v>
       </c>
       <c r="B60">
-        <v>1.06398820812423</v>
+        <v>1.009030925661406</v>
       </c>
       <c r="C60">
-        <v>1.063988208166813</v>
+        <v>0.9912516892935166</v>
       </c>
       <c r="D60">
         <v>1.063988208325849</v>
@@ -9835,10 +9835,10 @@
         <v>0.6773799150000001</v>
       </c>
       <c r="B61">
-        <v>1.020211806241426</v>
+        <v>0.957172035800559</v>
       </c>
       <c r="C61">
-        <v>1.020211806257315</v>
+        <v>0.9389354491784327</v>
       </c>
       <c r="D61">
         <v>1.020211806316655</v>
@@ -9990,10 +9990,10 @@
         <v>0.568899519</v>
       </c>
       <c r="B62">
-        <v>1.044807686494095</v>
+        <v>0.9797668117510041</v>
       </c>
       <c r="C62">
-        <v>1.044807686516352</v>
+        <v>0.9582885664641476</v>
       </c>
       <c r="D62">
         <v>1.044807686599482</v>
@@ -10145,10 +10145,10 @@
         <v>1.937580523</v>
       </c>
       <c r="B63">
-        <v>1.926084745501786</v>
+        <v>1.950259203055207</v>
       </c>
       <c r="C63">
-        <v>1.926084745557629</v>
+        <v>1.82985413435693</v>
       </c>
       <c r="D63">
         <v>1.926084745766196</v>
@@ -10300,10 +10300,10 @@
         <v>2.026030569</v>
       </c>
       <c r="B64">
-        <v>1.910960831035289</v>
+        <v>1.915495059846474</v>
       </c>
       <c r="C64">
-        <v>1.910960831091087</v>
+        <v>1.812086107935676</v>
       </c>
       <c r="D64">
         <v>1.910960831299486</v>
@@ -10455,10 +10455,10 @@
         <v>2.024119212</v>
       </c>
       <c r="B65">
-        <v>1.833696662143208</v>
+        <v>1.764415718037099</v>
       </c>
       <c r="C65">
-        <v>1.833696662198566</v>
+        <v>1.720959830896597</v>
       </c>
       <c r="D65">
         <v>1.833696662405316</v>
@@ -10610,10 +10610,10 @@
         <v>1.756726246</v>
       </c>
       <c r="B66">
-        <v>1.545327526302966</v>
+        <v>1.455381914505341</v>
       </c>
       <c r="C66">
-        <v>1.545327526342551</v>
+        <v>1.427348028260341</v>
       </c>
       <c r="D66">
         <v>1.545327526490393</v>
@@ -10765,10 +10765,10 @@
         <v>1.327422035</v>
       </c>
       <c r="B67">
-        <v>1.030278024787707</v>
+        <v>0.9403507416840204</v>
       </c>
       <c r="C67">
-        <v>1.030278024751485</v>
+        <v>0.9097264716422615</v>
       </c>
       <c r="D67">
         <v>1.030278024616202</v>
@@ -10920,10 +10920,10 @@
         <v>1.49137015</v>
       </c>
       <c r="B68">
-        <v>1.125086894804623</v>
+        <v>1.041434451446486</v>
       </c>
       <c r="C68">
-        <v>1.125086894804378</v>
+        <v>1.014040640744434</v>
       </c>
       <c r="D68">
         <v>1.125086894803465</v>
@@ -11075,10 +11075,10 @@
         <v>1.563162867</v>
       </c>
       <c r="B69">
-        <v>1.224794049039145</v>
+        <v>1.137143194137234</v>
       </c>
       <c r="C69">
-        <v>1.22479404905319</v>
+        <v>1.115967182746735</v>
       </c>
       <c r="D69">
         <v>1.224794049105646</v>
@@ -11230,10 +11230,10 @@
         <v>2.17485842</v>
       </c>
       <c r="B70">
-        <v>1.564916583460506</v>
+        <v>1.467505772717527</v>
       </c>
       <c r="C70">
-        <v>1.564916583482066</v>
+        <v>1.443749964851604</v>
       </c>
       <c r="D70">
         <v>1.56491658356259</v>
@@ -11385,10 +11385,10 @@
         <v>2.042542925</v>
       </c>
       <c r="B71">
-        <v>1.321477771055602</v>
+        <v>1.18859189203444</v>
       </c>
       <c r="C71">
-        <v>1.321477771003005</v>
+        <v>1.17908870027538</v>
       </c>
       <c r="D71">
         <v>1.321477770806565</v>
@@ -11540,10 +11540,10 @@
         <v>1.888604828</v>
       </c>
       <c r="B72">
-        <v>1.243303803614938</v>
+        <v>1.116743995613017</v>
       </c>
       <c r="C72">
-        <v>1.243303803559897</v>
+        <v>1.109777179131808</v>
       </c>
       <c r="D72">
         <v>1.243303803354326</v>
@@ -11695,10 +11695,10 @@
         <v>2.04003079</v>
       </c>
       <c r="B73">
-        <v>1.300647744375314</v>
+        <v>1.189882115541079</v>
       </c>
       <c r="C73">
-        <v>1.300647744355103</v>
+        <v>1.17878936767042</v>
       </c>
       <c r="D73">
         <v>1.300647744279618</v>
@@ -11850,10 +11850,10 @@
         <v>2.000153766</v>
       </c>
       <c r="B74">
-        <v>1.280355628488253</v>
+        <v>1.167260115785364</v>
       </c>
       <c r="C74">
-        <v>1.280355628464678</v>
+        <v>1.157381577945635</v>
       </c>
       <c r="D74">
         <v>1.280355628376629</v>
@@ -12005,10 +12005,10 @@
         <v>0.864914137</v>
       </c>
       <c r="B75">
-        <v>0.4062022426405482</v>
+        <v>0.4066922449664912</v>
       </c>
       <c r="C75">
-        <v>0.4062022425579478</v>
+        <v>0.3593405270047377</v>
       </c>
       <c r="D75">
         <v>0.4062022422494501</v>
@@ -12160,10 +12160,10 @@
         <v>0.717927851</v>
       </c>
       <c r="B76">
-        <v>0.2167261609572284</v>
+        <v>0.2365861192234999</v>
       </c>
       <c r="C76">
-        <v>0.2167261608463432</v>
+        <v>0.1894454626197862</v>
       </c>
       <c r="D76">
         <v>0.2167261604322071</v>
@@ -12315,10 +12315,10 @@
         <v>0.407859612</v>
       </c>
       <c r="B77">
-        <v>-0.07962362098602024</v>
+        <v>-0.05098468330650393</v>
       </c>
       <c r="C77">
-        <v>-0.07962362115769198</v>
+        <v>-0.06271089280628654</v>
       </c>
       <c r="D77">
         <v>-0.07962362179885447</v>
@@ -12470,10 +12470,10 @@
         <v>0.9410866919999999</v>
       </c>
       <c r="B78">
-        <v>0.5125640682047261</v>
+        <v>0.4869801294003575</v>
       </c>
       <c r="C78">
-        <v>0.512564068113582</v>
+        <v>0.4521888063029428</v>
       </c>
       <c r="D78">
         <v>0.5125640677731752</v>
@@ -12625,10 +12625,10 @@
         <v>1.134364172</v>
       </c>
       <c r="B79">
-        <v>0.76702657058858</v>
+        <v>0.7060790612247096</v>
       </c>
       <c r="C79">
-        <v>0.76702657052057</v>
+        <v>0.6783129833574693</v>
       </c>
       <c r="D79">
         <v>0.7670265702665642</v>
@@ -12780,10 +12780,10 @@
         <v>1.021170297</v>
       </c>
       <c r="B80">
-        <v>0.6718530348843972</v>
+        <v>0.6085913251942658</v>
       </c>
       <c r="C80">
-        <v>0.6718530347861421</v>
+        <v>0.5837466328339267</v>
       </c>
       <c r="D80">
         <v>0.6718530344191769</v>
@@ -12935,10 +12935,10 @@
         <v>0.744577103</v>
       </c>
       <c r="B81">
-        <v>0.2688771875132087</v>
+        <v>0.2692206091624744</v>
       </c>
       <c r="C81">
-        <v>0.2688771873750079</v>
+        <v>0.2142141200662262</v>
       </c>
       <c r="D81">
         <v>0.2688771868588538</v>
@@ -13090,10 +13090,10 @@
         <v>0.739134427</v>
       </c>
       <c r="B82">
-        <v>0.3898749141614533</v>
+        <v>0.3648421662218471</v>
       </c>
       <c r="C82">
-        <v>0.3898749140765826</v>
+        <v>0.3214182505691904</v>
       </c>
       <c r="D82">
         <v>0.3898749137596063</v>
@@ -13245,10 +13245,10 @@
         <v>0.226931775</v>
       </c>
       <c r="B83">
-        <v>-0.04767344012585074</v>
+        <v>-0.05538388699413982</v>
       </c>
       <c r="C83">
-        <v>-0.04767344024402211</v>
+        <v>-0.07904012504136289</v>
       </c>
       <c r="D83">
         <v>-0.04767344068537037</v>
@@ -13400,10 +13400,10 @@
         <v>0.153490455</v>
       </c>
       <c r="B84">
-        <v>-0.1659099818656747</v>
+        <v>-0.1718707304436953</v>
       </c>
       <c r="C84">
-        <v>-0.1659099820092739</v>
+        <v>-0.1895975687147732</v>
       </c>
       <c r="D84">
         <v>-0.1659099825455905</v>
@@ -13555,10 +13555,10 @@
         <v>-0.030111902</v>
       </c>
       <c r="B85">
-        <v>-0.2331026490902937</v>
+        <v>-0.2444843595275896</v>
       </c>
       <c r="C85">
-        <v>-0.2331026492581945</v>
+        <v>-0.2590511064389142</v>
       </c>
       <c r="D85">
         <v>-0.2331026498852731</v>
@@ -13710,10 +13710,10 @@
         <v>0.007322334</v>
       </c>
       <c r="B86">
-        <v>-0.3197727234034137</v>
+        <v>-0.3360055253264454</v>
       </c>
       <c r="C86">
-        <v>-0.3197727235937459</v>
+        <v>-0.3419307313149563</v>
       </c>
       <c r="D86">
         <v>-0.3197727243046011</v>
@@ -13865,10 +13865,10 @@
         <v>-0.472334039</v>
       </c>
       <c r="B87">
-        <v>-0.6187149211605867</v>
+        <v>-0.6119808159005445</v>
       </c>
       <c r="C87">
-        <v>-0.6187149213714955</v>
+        <v>-0.6211147832143686</v>
       </c>
       <c r="D87">
         <v>-0.618714922159201</v>
@@ -14020,10 +14020,10 @@
         <v>-0.205993001</v>
       </c>
       <c r="B88">
-        <v>-0.3247448045505243</v>
+        <v>-0.3431729222302568</v>
       </c>
       <c r="C88">
-        <v>-0.3247448047375676</v>
+        <v>-0.3590585159250156</v>
       </c>
       <c r="D88">
         <v>-0.3247448054361395</v>
@@ -14175,10 +14175,10 @@
         <v>0.358585953</v>
       </c>
       <c r="B89">
-        <v>-0.1394574092359855</v>
+        <v>-0.1672767768774763</v>
       </c>
       <c r="C89">
-        <v>-0.1394574093705763</v>
+        <v>-0.1851980373439701</v>
       </c>
       <c r="D89">
         <v>-0.139457409873248</v>
@@ -14330,10 +14330,10 @@
         <v>-0.193909793</v>
       </c>
       <c r="B90">
-        <v>-0.6571869322643403</v>
+        <v>-0.6589519793193458</v>
       </c>
       <c r="C90">
-        <v>-0.657186932469963</v>
+        <v>-0.6640865133596934</v>
       </c>
       <c r="D90">
         <v>-0.657186933237925</v>
@@ -14485,10 +14485,10 @@
         <v>-0.333806235</v>
       </c>
       <c r="B91">
-        <v>-0.7739941235418687</v>
+        <v>-0.7696585107161952</v>
       </c>
       <c r="C91">
-        <v>-0.7739941237644035</v>
+        <v>-0.7742823582758314</v>
       </c>
       <c r="D91">
         <v>-0.77399412459553</v>
@@ -14640,10 +14640,10 @@
         <v>-0.152969901</v>
       </c>
       <c r="B92">
-        <v>-0.6963560498804283</v>
+        <v>-0.6968145028189406</v>
       </c>
       <c r="C92">
-        <v>-0.6963560500950928</v>
+        <v>-0.7028121818741226</v>
       </c>
       <c r="D92">
         <v>-0.696356050896825</v>
@@ -14795,10 +14795,10 @@
         <v>0.084887538</v>
       </c>
       <c r="B93">
-        <v>-0.2891788658936298</v>
+        <v>-0.3067405123028176</v>
       </c>
       <c r="C93">
-        <v>-0.289178866047308</v>
+        <v>-0.3205292182722452</v>
       </c>
       <c r="D93">
         <v>-0.2891788666212675</v>
@@ -14950,10 +14950,10 @@
         <v>-0.477853004</v>
       </c>
       <c r="B94">
-        <v>-0.864167019850235</v>
+        <v>-0.8566566789870369</v>
       </c>
       <c r="C94">
-        <v>-0.8641670200867226</v>
+        <v>-0.8607054584879381</v>
       </c>
       <c r="D94">
         <v>-0.8641670209699595</v>
@@ -15105,10 +15105,10 @@
         <v>-0.196793988</v>
       </c>
       <c r="B95">
-        <v>-0.8120510077400659</v>
+        <v>-0.8083608283421103</v>
       </c>
       <c r="C95">
-        <v>-0.8120510079723243</v>
+        <v>-0.8112198273001274</v>
       </c>
       <c r="D95">
         <v>-0.8120510088397661</v>
@@ -15260,10 +15260,10 @@
         <v>-0.035189774</v>
       </c>
       <c r="B96">
-        <v>-0.505727409688973</v>
+        <v>-0.5153354862790013</v>
       </c>
       <c r="C96">
-        <v>-0.5057274098767005</v>
+        <v>-0.5244792079491229</v>
       </c>
       <c r="D96">
         <v>-0.5057274105778281</v>
@@ -15415,10 +15415,10 @@
         <v>-0.119794953</v>
       </c>
       <c r="B97">
-        <v>-0.4762007380152382</v>
+        <v>-0.4857088365152586</v>
       </c>
       <c r="C97">
-        <v>-0.4762007381966067</v>
+        <v>-0.4952772934380971</v>
       </c>
       <c r="D97">
         <v>-0.4762007388739842</v>
@@ -15570,10 +15570,10 @@
         <v>-0.137195461</v>
       </c>
       <c r="B98">
-        <v>-0.4968895988821287</v>
+        <v>-0.50620332271515</v>
       </c>
       <c r="C98">
-        <v>-0.4968895990680583</v>
+        <v>-0.5155251244910712</v>
       </c>
       <c r="D98">
         <v>-0.496889599762471</v>
@@ -15725,10 +15725,10 @@
         <v>-0.048780735</v>
       </c>
       <c r="B99">
-        <v>-0.261292661936062</v>
+        <v>-0.2783116979652597</v>
       </c>
       <c r="C99">
-        <v>-0.2612926620837936</v>
+        <v>-0.2913583657311823</v>
       </c>
       <c r="D99">
         <v>-0.2612926626355436</v>
@@ -15880,10 +15880,10 @@
         <v>-0.265775876</v>
       </c>
       <c r="B100">
-        <v>-0.4305153468555909</v>
+        <v>-0.4424178677206014</v>
       </c>
       <c r="C100">
-        <v>-0.4305153470329818</v>
+        <v>-0.4531430348577045</v>
       </c>
       <c r="D100">
         <v>-0.4305153476955039</v>
@@ -16035,10 +16035,10 @@
         <v>-1.383090189</v>
       </c>
       <c r="B101">
-        <v>-1.327916833376816</v>
+        <v>-1.304407599267132</v>
       </c>
       <c r="C101">
-        <v>-1.327916833682163</v>
+        <v>-1.26001456436536</v>
       </c>
       <c r="D101">
         <v>-1.327916834822577</v>
@@ -16190,10 +16190,10 @@
         <v>-1.491020681</v>
       </c>
       <c r="B102">
-        <v>-1.482940897263363</v>
+        <v>-1.449939810008828</v>
       </c>
       <c r="C102">
-        <v>-1.482940897588425</v>
+        <v>-1.41731161252906</v>
       </c>
       <c r="D102">
         <v>-1.48294089880247</v>
@@ -16345,10 +16345,10 @@
         <v>-1.726097843</v>
       </c>
       <c r="B103">
-        <v>-1.82306771869243</v>
+        <v>-1.774000178577414</v>
       </c>
       <c r="C103">
-        <v>-1.823067719064603</v>
+        <v>-1.739532246818682</v>
       </c>
       <c r="D103">
         <v>-1.8230677204546</v>
@@ -16500,10 +16500,10 @@
         <v>-1.861585716</v>
       </c>
       <c r="B104">
-        <v>-1.910147606596743</v>
+        <v>-1.856953950110136</v>
       </c>
       <c r="C104">
-        <v>-1.910147606987121</v>
+        <v>-1.822761698406126</v>
       </c>
       <c r="D104">
         <v>-1.910147608445107</v>
@@ -16655,10 +16655,10 @@
         <v>-1.803675785</v>
       </c>
       <c r="B105">
-        <v>-1.871570886366287</v>
+        <v>-1.824814956845054</v>
       </c>
       <c r="C105">
-        <v>-1.871570886741324</v>
+        <v>-1.792241498369165</v>
       </c>
       <c r="D105">
         <v>-1.871570888142016</v>
@@ -16810,10 +16810,10 @@
         <v>-1.009398128</v>
       </c>
       <c r="B106">
-        <v>-1.172037047023284</v>
+        <v>-1.151552241946909</v>
       </c>
       <c r="C106">
-        <v>-1.172037047303947</v>
+        <v>-1.091143504175093</v>
       </c>
       <c r="D106">
         <v>-1.172037048352169</v>
@@ -16965,10 +16965,10 @@
         <v>-0.412606248</v>
       </c>
       <c r="B107">
-        <v>-0.3164546167246352</v>
+        <v>-0.3354968817928391</v>
       </c>
       <c r="C107">
-        <v>-0.3164546168848518</v>
+        <v>-0.3498700254820326</v>
       </c>
       <c r="D107">
         <v>-0.3164546174832311</v>
@@ -17120,10 +17120,10 @@
         <v>-0.51999747</v>
       </c>
       <c r="B108">
-        <v>-0.5572545384159859</v>
+        <v>-0.5644373417583988</v>
       </c>
       <c r="C108">
-        <v>-0.5572545386111089</v>
+        <v>-0.5723214408993367</v>
       </c>
       <c r="D108">
         <v>-0.5572545393398566</v>
@@ -17275,10 +17275,10 @@
         <v>0.068281413</v>
       </c>
       <c r="B109">
-        <v>-0.4267566185457433</v>
+        <v>-0.4386483239801215</v>
       </c>
       <c r="C109">
-        <v>-0.4267566187200702</v>
+        <v>-0.4494273443313074</v>
       </c>
       <c r="D109">
         <v>-0.4267566193711487</v>
@@ -17430,10 +17430,10 @@
         <v>0.724845088</v>
       </c>
       <c r="B110">
-        <v>0.4062803507874841</v>
+        <v>0.3539208406394835</v>
       </c>
       <c r="C110">
-        <v>0.4062803507300445</v>
+        <v>0.3243826072703423</v>
       </c>
       <c r="D110">
         <v>0.4062803505155189</v>
@@ -17585,10 +17585,10 @@
         <v>0.843675493</v>
       </c>
       <c r="B111">
-        <v>0.5980393484638979</v>
+        <v>0.5397251886522896</v>
       </c>
       <c r="C111">
-        <v>0.5980393484329295</v>
+        <v>0.5079045498917723</v>
       </c>
       <c r="D111">
         <v>0.5980393483172673</v>
@@ -17740,10 +17740,10 @@
         <v>1.000687569</v>
       </c>
       <c r="B112">
-        <v>0.6602849090602338</v>
+        <v>0.5972325249247782</v>
       </c>
       <c r="C112">
-        <v>0.6602849090338984</v>
+        <v>0.5637183830643657</v>
       </c>
       <c r="D112">
         <v>0.6602849089355406</v>
@@ -17895,10 +17895,10 @@
         <v>1.420234526</v>
       </c>
       <c r="B113">
-        <v>1.144481689918233</v>
+        <v>1.077706904425183</v>
       </c>
       <c r="C113">
-        <v>1.144481689964327</v>
+        <v>1.037336111521357</v>
       </c>
       <c r="D113">
         <v>1.144481690136481</v>
@@ -18050,10 +18050,10 @@
         <v>1.57372364</v>
       </c>
       <c r="B114">
-        <v>1.453559941496731</v>
+        <v>1.39622839772214</v>
       </c>
       <c r="C114">
-        <v>1.453559941588409</v>
+        <v>1.351342199846194</v>
       </c>
       <c r="D114">
         <v>1.453559941930807</v>
@@ -18205,10 +18205,10 @@
         <v>1.732814752</v>
       </c>
       <c r="B115">
-        <v>1.933275824427054</v>
+        <v>1.918805592535557</v>
       </c>
       <c r="C115">
-        <v>1.933275824576539</v>
+        <v>1.857876224671647</v>
       </c>
       <c r="D115">
         <v>1.933275825134838</v>
@@ -18360,10 +18360,10 @@
         <v>2.09753689</v>
       </c>
       <c r="B116">
-        <v>2.246819015793353</v>
+        <v>2.271692597228036</v>
       </c>
       <c r="C116">
-        <v>2.24681901598978</v>
+        <v>2.207134665366996</v>
       </c>
       <c r="D116">
         <v>2.246819016723395</v>
@@ -18515,10 +18515,10 @@
         <v>1.876536832</v>
       </c>
       <c r="B117">
-        <v>2.144577450899309</v>
+        <v>2.132825626913212</v>
       </c>
       <c r="C117">
-        <v>2.144577451072092</v>
+        <v>2.087272950797764</v>
       </c>
       <c r="D117">
         <v>2.1445774517174</v>
@@ -18670,10 +18670,10 @@
         <v>1.903128061</v>
       </c>
       <c r="B118">
-        <v>1.931231208071709</v>
+        <v>1.90832288933985</v>
       </c>
       <c r="C118">
-        <v>1.93123120822559</v>
+        <v>1.857499966234498</v>
       </c>
       <c r="D118">
         <v>1.931231208800308</v>
@@ -18825,10 +18825,10 @@
         <v>2.565704836</v>
       </c>
       <c r="B119">
-        <v>2.377336004637718</v>
+        <v>2.413101524255006</v>
       </c>
       <c r="C119">
-        <v>2.377336004860359</v>
+        <v>2.348483531456432</v>
       </c>
       <c r="D119">
         <v>2.377336005691883</v>
@@ -18980,10 +18980,10 @@
         <v>2.524999221</v>
       </c>
       <c r="B120">
-        <v>2.291922669276542</v>
+        <v>2.323500201554738</v>
       </c>
       <c r="C120">
-        <v>2.291922669481734</v>
+        <v>2.251614976909897</v>
       </c>
       <c r="D120">
         <v>2.291922670248088</v>
@@ -19135,10 +19135,10 @@
         <v>2.253887829</v>
       </c>
       <c r="B121">
-        <v>2.365994111865533</v>
+        <v>2.423376858946432</v>
       </c>
       <c r="C121">
-        <v>2.365994112080101</v>
+        <v>2.336147266100405</v>
       </c>
       <c r="D121">
         <v>2.365994112881481</v>
@@ -19290,10 +19290,10 @@
         <v>1.717105097</v>
       </c>
       <c r="B122">
-        <v>1.801415792477111</v>
+        <v>1.7727299471868</v>
       </c>
       <c r="C122">
-        <v>1.801415792614765</v>
+        <v>1.715059444383261</v>
       </c>
       <c r="D122">
         <v>1.801415793128878</v>
@@ -19445,10 +19445,10 @@
         <v>1.56643693</v>
       </c>
       <c r="B123">
-        <v>1.572070554870536</v>
+        <v>1.518607346805616</v>
       </c>
       <c r="C123">
-        <v>1.572070554969627</v>
+        <v>1.47051367156918</v>
       </c>
       <c r="D123">
         <v>1.572070555339715</v>
@@ -19600,10 +19600,10 @@
         <v>1.670021813</v>
       </c>
       <c r="B124">
-        <v>1.635944784493708</v>
+        <v>1.586973711091423</v>
       </c>
       <c r="C124">
-        <v>1.635944784600197</v>
+        <v>1.537953205086531</v>
       </c>
       <c r="D124">
         <v>1.635944784997913</v>
@@ -19755,10 +19755,10 @@
         <v>1.289704565</v>
       </c>
       <c r="B125">
-        <v>1.195981631740053</v>
+        <v>1.129671007796909</v>
       </c>
       <c r="C125">
-        <v>1.195981631793325</v>
+        <v>1.088669133015503</v>
       </c>
       <c r="D125">
         <v>1.195981631992288</v>
@@ -19910,10 +19910,10 @@
         <v>1.598926475</v>
       </c>
       <c r="B126">
-        <v>1.590295932171104</v>
+        <v>1.54029002037898</v>
       </c>
       <c r="C126">
-        <v>1.59029593228172</v>
+        <v>1.493182582974556</v>
       </c>
       <c r="D126">
         <v>1.590295932694853</v>
@@ -20065,10 +20065,10 @@
         <v>1.548087648</v>
       </c>
       <c r="B127">
-        <v>1.27940510276167</v>
+        <v>1.214534624192808</v>
       </c>
       <c r="C127">
-        <v>1.279405102822796</v>
+        <v>1.172129835833268</v>
       </c>
       <c r="D127">
         <v>1.279405103051094</v>
@@ -20220,10 +20220,10 @@
         <v>1.53687982</v>
       </c>
       <c r="B128">
-        <v>1.418939395633838</v>
+        <v>1.358193324463316</v>
       </c>
       <c r="C128">
-        <v>1.418939395716336</v>
+        <v>1.315427597709846</v>
       </c>
       <c r="D128">
         <v>1.418939396024449</v>
@@ -20375,10 +20375,10 @@
         <v>1.443008135</v>
       </c>
       <c r="B129">
-        <v>1.264972135859279</v>
+        <v>1.194796167210676</v>
       </c>
       <c r="C129">
-        <v>1.264972135915614</v>
+        <v>1.155067218659583</v>
       </c>
       <c r="D129">
         <v>1.264972136126016</v>
@@ -20530,10 +20530,10 @@
         <v>1.453311511</v>
       </c>
       <c r="B130">
-        <v>1.64751195634304</v>
+        <v>1.598692962901373</v>
       </c>
       <c r="C130">
-        <v>1.647511956458027</v>
+        <v>1.553453387402613</v>
       </c>
       <c r="D130">
         <v>1.647511956887483</v>
@@ -20685,10 +20685,10 @@
         <v>0.170289762</v>
       </c>
       <c r="B131">
-        <v>0.6907708394057603</v>
+        <v>0.6300725772529705</v>
       </c>
       <c r="C131">
-        <v>0.6907708393902554</v>
+        <v>0.5935144545526483</v>
       </c>
       <c r="D131">
         <v>0.6907708393323472</v>
@@ -20840,10 +20840,10 @@
         <v>0.108929054</v>
       </c>
       <c r="B132">
-        <v>0.6301953685688002</v>
+        <v>0.569984664562908</v>
       </c>
       <c r="C132">
-        <v>0.630195368542488</v>
+        <v>0.5355743071013688</v>
       </c>
       <c r="D132">
         <v>0.6301953684442173</v>
@@ -20995,10 +20995,10 @@
         <v>0.556826058</v>
       </c>
       <c r="B133">
-        <v>0.6719900151447818</v>
+        <v>0.6109710432957479</v>
       </c>
       <c r="C133">
-        <v>0.6719900151253677</v>
+        <v>0.5766036454396919</v>
       </c>
       <c r="D133">
         <v>0.6719900150528594</v>
@@ -21150,10 +21150,10 @@
         <v>0.756759764</v>
       </c>
       <c r="B134">
-        <v>0.9181873443039841</v>
+        <v>0.8521640230425169</v>
       </c>
       <c r="C134">
-        <v>0.9181873443185615</v>
+        <v>0.8147204741377556</v>
       </c>
       <c r="D134">
         <v>0.9181873443730056</v>
@@ -21305,10 +21305,10 @@
         <v>0.307333133</v>
       </c>
       <c r="B135">
-        <v>0.4230182708947148</v>
+        <v>0.37194357394919</v>
       </c>
       <c r="C135">
-        <v>0.4230182708401321</v>
+        <v>0.3431930421333185</v>
       </c>
       <c r="D135">
         <v>0.4230182706362758</v>
@@ -21460,10 +21460,10 @@
         <v>0.419613927</v>
       </c>
       <c r="B136">
-        <v>0.5825552293767666</v>
+        <v>0.5221172311965874</v>
       </c>
       <c r="C136">
-        <v>0.5825552293397629</v>
+        <v>0.4897134197131143</v>
       </c>
       <c r="D136">
         <v>0.5825552292015609</v>
@@ -21615,10 +21615,10 @@
         <v>0.918398419</v>
       </c>
       <c r="B137">
-        <v>1.091398760691245</v>
+        <v>1.024406422903854</v>
       </c>
       <c r="C137">
-        <v>1.091398760729935</v>
+        <v>0.984676188182019</v>
       </c>
       <c r="D137">
         <v>1.091398760874437</v>
